--- a/data/test_reports.xlsx
+++ b/data/test_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F73"/>
+  <dimension ref="A1:F88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2625,6 +2625,456 @@
         </is>
       </c>
     </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/croatia</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E74" t="b">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'Villa Buljan', 'rating': '3', 'number_of_reviews': 'New', 'price': '৳38,047'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Villa Buljan', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳38,047'}, 'details_info': {'title': 'Villa Buljan', 'property_type': 'Villa', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳38,047'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/croatia</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E75" t="b">
+        <v>1</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'SILVER Apartment', 'rating': '9.0', 'number_of_reviews': '(47 Reviews)', 'price': '৳7,284'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'SILVER Apartment', 'rating': '9.0', 'number_of_reviews': '(47 Reviews)', 'price': '৳7,284'}, 'details_info': {'title': 'SILVER Apartment', 'property_type': 'Apartment', 'rating': '9.0', 'number_of_reviews': '(47 Reviews)', 'price': '৳7,284'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/croatia</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E76" t="b">
+        <v>1</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'Villa Pescatore', 'rating': '10.0', 'number_of_reviews': '(41 Reviews)', 'price': '৳76,810'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Villa Pescatore', 'rating': '10.0', 'number_of_reviews': '(41 Reviews)', 'price': '৳76,810'}, 'details_info': {'title': 'Villa Pescatore', 'property_type': 'Villa', 'rating': '10.0', 'number_of_reviews': '(41 Reviews)', 'price': '৳76,810'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/croatia</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E77" t="b">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Apartman Jakov', 'rating': '3', 'number_of_reviews': 'New', 'price': '৳18,259'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Apartman Jakov', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳18,259'}, 'details_info': {'title': 'Apartman Jakov', 'property_type': 'Apartment', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳18,259'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/croatia</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E78" t="b">
+        <v>1</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'Villa Luka', 'rating': '10.0', 'number_of_reviews': '(3 Reviews)', 'price': '৳17,190'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Villa Luka', 'rating': '10.0', 'number_of_reviews': '(3 Reviews)', 'price': '৳17,190'}, 'details_info': {'title': 'Villa Luka', 'property_type': 'Villa', 'rating': '10.0', 'number_of_reviews': '(3 Reviews)', 'price': '৳17,190'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/croatia</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E79" t="b">
+        <v>1</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Apartment D&amp;L', 'rating': '7.9', 'number_of_reviews': '(9 Reviews)', 'price': '৳1,876,660'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Apartment D&amp;L', 'rating': '7.9', 'number_of_reviews': '(9 Reviews)', 'price': '৳1,876,660'}, 'details_info': {'title': 'Apartment D&amp;L', 'property_type': 'Apartment', 'rating': '7.9', 'number_of_reviews': '(9 Reviews)', 'price': '৳1,876,660'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/croatia</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E80" t="b">
+        <v>1</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'LUXURY APARTMENT MEJE', 'rating': '10.0', 'number_of_reviews': '(40 Reviews)', 'price': '৳39,074'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'LUXURY APARTMENT MEJE', 'rating': '10.0', 'number_of_reviews': '(40 Reviews)', 'price': '৳39,074'}, 'details_info': {'title': 'LUXURY APARTMENT MEJE', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(40 Reviews)', 'price': '৳39,074'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/croatia</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E81" t="b">
+        <v>1</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Maja Apartment', 'rating': '9.2', 'number_of_reviews': '(17 Reviews)', 'price': '৳11,518'}, 'map_info_window': {'property_type': 'House', 'title': 'Maja Apartment', 'rating': '9.2', 'number_of_reviews': '(17 Reviews)', 'price': '৳11,518'}, 'details_info': {'title': 'Maja Apartment', 'property_type': 'House', 'rating': '9.2', 'number_of_reviews': '(17 Reviews)', 'price': '৳11,518'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/croatia</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E82" t="b">
+        <v>1</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'San Lorenzo Deluxe Room with Balcony', 'rating': '10.0', 'number_of_reviews': '(89 Reviews)', 'price': '৳7,010'}, 'map_info_window': {'property_type': 'House', 'title': 'San Lorenzo Deluxe Room with Balcony', 'rating': '10.0', 'number_of_reviews': '(89 Reviews)', 'price': '৳7,010'}, 'details_info': {'title': 'San Lorenzo Deluxe Room with Balcony', 'property_type': 'House', 'rating': '10.0', 'number_of_reviews': '(89 Reviews)', 'price': '৳7,010'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/rwanda</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E83" t="b">
+        <v>1</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'House for rent in kimihurura', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳486,907'}, 'map_info_window': {'property_type': 'Villa', 'title': 'House for rent in kimihurura', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳486,907'}, 'details_info': {'title': 'House for rent in kimihurura', 'property_type': 'Villa', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳486,907'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/rwanda</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E84" t="b">
+        <v>1</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'The Loft Kigali bed &amp; breakfast', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳9,738'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'The Loft Kigali bed &amp; breakfast', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳9,738'}, 'details_info': {'title': 'The Loft Kigali bed &amp; breakfast', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳9,738'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/rwanda</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E85" t="b">
+        <v>1</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'Isange Estate - Kigali', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳13,999'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Isange Estate - Kigali', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳13,999'}, 'details_info': {'title': 'Isange Estate - Kigali', 'property_type': 'Villa', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳13,999'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/rwanda</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E86" t="b">
+        <v>1</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Èze', 'rating': '10.0', 'number_of_reviews': '(3 Reviews)', 'price': '৳19,105'}, 'map_info_window': {'property_type': 'House', 'title': 'Èze', 'rating': '10.0', 'number_of_reviews': '(3 Reviews)', 'price': '৳19,105'}, 'details_info': {'title': 'Èze', 'property_type': 'House', 'rating': '10.0', 'number_of_reviews': '(3 Reviews)', 'price': '৳19,105'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/rwanda</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E87" t="b">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': "Africa's Touch &amp; Leisure", 'rating': '4', 'number_of_reviews': 'New', 'price': '৳190,198'}, 'map_info_window': {'property_type': 'Hotel', 'title': "Africa's Touch &amp; Leisure", 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳190,198'}, 'details_info': {'title': "Africa's Touch &amp; Leisure", 'property_type': 'Hotel', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳190,198'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/rwanda</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E88" t="b">
+        <v>1</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Bnb kigali', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳6,695'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Bnb kigali', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳6,695'}, 'details_info': {'title': 'Bnb kigali', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳6,695'}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/test_reports.xlsx
+++ b/data/test_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F88"/>
+  <dimension ref="A1:F118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3075,6 +3075,906 @@
         </is>
       </c>
     </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E89" t="b">
+        <v>1</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Dolar Lodges &amp; Tours', 'rating': '6.7', 'number_of_reviews': '(6 Reviews)', 'price': '৳6,208'}, 'map_info_window': {'property_type': 'House', 'title': 'Dolar Lodges &amp; Tours', 'rating': '6.7', 'number_of_reviews': '(6 Reviews)', 'price': '৳6,208'}, 'details_info': {'title': 'Dolar Lodges &amp; Tours', 'property_type': 'House', 'rating': '6.7', 'number_of_reviews': '(6 Reviews)', 'price': '৳6,208'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E90" t="b">
+        <v>1</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Cabin', 'title': 'Elephant Valley Lodge', 'rating': '4.7', 'number_of_reviews': '(2 Reviews)', 'price': '৳51,189'}, 'map_info_window': {'property_type': 'Cabin', 'title': 'Elephant Valley Lodge', 'rating': '4.7', 'number_of_reviews': '(2 Reviews)', 'price': '৳51,189'}, 'details_info': {'title': 'Elephant Valley Lodge', 'property_type': 'Cabin', 'rating': '4.7', 'number_of_reviews': '(2 Reviews)', 'price': '৳51,189'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E91" t="b">
+        <v>1</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Excella Guesthouse', 'rating': '8.3', 'number_of_reviews': '(4 Reviews)', 'price': '৳4,626'}, 'map_info_window': {'property_type': 'House', 'title': 'Excella Guesthouse', 'rating': '8.3', 'number_of_reviews': '(4 Reviews)', 'price': '৳4,626'}, 'details_info': {'title': 'Excella Guesthouse', 'property_type': 'House', 'rating': '8.3', 'number_of_reviews': '(4 Reviews)', 'price': '৳4,626'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E92" t="b">
+        <v>1</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Cabin', 'title': 'Gweta Lodge', 'rating': '7.4', 'number_of_reviews': '(100 Reviews)', 'price': '৳7,878'}, 'map_info_window': {'property_type': 'Cabin', 'title': 'Gweta Lodge', 'rating': '7.4', 'number_of_reviews': '(100 Reviews)', 'price': '৳7,878'}, 'details_info': {'title': 'Gweta Lodge', 'property_type': 'Cabin', 'rating': '7.4', 'number_of_reviews': '(100 Reviews)', 'price': '৳7,878'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E93" t="b">
+        <v>1</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Enviro Villa', 'rating': '7.4', 'number_of_reviews': '(44 Reviews)', 'price': '৳6,991'}, 'map_info_window': {'property_type': 'House', 'title': 'Enviro Villa', 'rating': '7.4', 'number_of_reviews': '(44 Reviews)', 'price': '৳6,991'}, 'details_info': {'title': 'Enviro Villa', 'property_type': 'House', 'rating': '7.4', 'number_of_reviews': '(44 Reviews)', 'price': '৳6,991'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E94" t="b">
+        <v>1</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'The Gibeon Ville Self-Catering', 'rating': '8.2', 'number_of_reviews': '(20 Reviews)', 'price': '৳9,373'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'The Gibeon Ville Self-Catering', 'rating': '8.2', 'number_of_reviews': '(20 Reviews)', 'price': '৳9,373'}, 'details_info': {'title': 'The Gibeon Ville Self-Catering', 'property_type': 'Apartment', 'rating': '8.2', 'number_of_reviews': '(20 Reviews)', 'price': '৳9,373'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E95" t="b">
+        <v>1</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Cabin', 'title': 'Diggers Inn', 'rating': '8.1', 'number_of_reviews': '(277 Reviews)', 'price': '৳10,590'}, 'map_info_window': {'property_type': 'Cabin', 'title': 'Diggers Inn', 'rating': '8.1', 'number_of_reviews': '(277 Reviews)', 'price': '৳10,590'}, 'details_info': {'title': 'Diggers Inn', 'property_type': 'Cabin', 'rating': '8.1', 'number_of_reviews': '(277 Reviews)', 'price': '৳10,590'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E96" t="b">
+        <v>1</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Mashusha Guest House', 'rating': '8.0', 'number_of_reviews': '(1 Review)', 'price': '৳4,504'}, 'map_info_window': {'property_type': 'House', 'title': 'Mashusha Guest House', 'rating': '8.0', 'number_of_reviews': '(1 Review)', 'price': '৳4,504'}, 'details_info': {'title': 'Mashusha Guest House', 'property_type': 'House', 'rating': '8.0', 'number_of_reviews': '(1 Review)', 'price': '৳4,504'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E97" t="b">
+        <v>1</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Cabin', 'title': 'Leopard Plains', 'rating': '8.8', 'number_of_reviews': '(12 Reviews)', 'price': '৳40,778'}, 'map_info_window': {'property_type': 'Cabin', 'title': 'Leopard Plains', 'rating': '8.8', 'number_of_reviews': '(12 Reviews)', 'price': '৳40,778'}, 'details_info': {'title': 'Leopard Plains', 'property_type': 'Cabin', 'rating': '8.8', 'number_of_reviews': '(12 Reviews)', 'price': '৳40,778'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E98" t="b">
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'Kolokolo Safari Home', 'rating': '4', 'number_of_reviews': 'New', 'price': '৳948,777'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Kolokolo Safari Home', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳948,777'}, 'details_info': {'title': 'Kolokolo Safari Home', 'property_type': 'Villa', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳948,777'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E99" t="b">
+        <v>1</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'King Bed Hippo Lagoon Off Grid', 'rating': '9.9', 'number_of_reviews': '(8 Reviews)', 'price': '৳259,460'}, 'map_info_window': {'property_type': 'House', 'title': 'King Bed Hippo Lagoon Off Grid', 'rating': '9.9', 'number_of_reviews': '(8 Reviews)', 'price': '৳259,460'}, 'details_info': {'title': 'King Bed Hippo Lagoon Off Grid', 'property_type': 'House', 'rating': '9.9', 'number_of_reviews': '(8 Reviews)', 'price': '৳259,460'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E100" t="b">
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Cabin', 'title': 'Feline Fields The Lodge By Mantis', 'rating': '4', 'number_of_reviews': 'New', 'price': '৳248,809'}, 'map_info_window': {'property_type': 'Cabin', 'title': 'Feline Fields The Lodge By Mantis', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳248,809'}, 'details_info': {'title': 'Feline Fields The Lodge By Mantis', 'property_type': 'Cabin', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳248,809'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E101" t="b">
+        <v>1</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Cabin', 'title': 'Mashatu Lodge', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳215,526'}, 'map_info_window': {'property_type': 'Cabin', 'title': 'Mashatu Lodge', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳215,526'}, 'details_info': {'title': 'Mashatu Lodge', 'property_type': 'Cabin', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳215,526'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E102" t="b">
+        <v>1</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Cabin', 'title': 'Ghoha Hills Savuti Lodge', 'rating': '9.7', 'number_of_reviews': '(3 Reviews)', 'price': '৳203,660'}, 'map_info_window': {'property_type': 'Cabin', 'title': 'Ghoha Hills Savuti Lodge', 'rating': '9.7', 'number_of_reviews': '(3 Reviews)', 'price': '৳203,660'}, 'details_info': {'title': 'Ghoha Hills Savuti Lodge', 'property_type': 'Cabin', 'rating': '9.7', 'number_of_reviews': '(3 Reviews)', 'price': '৳203,660'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/botswana</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E103" t="b">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Shalimpo Safari Home', 'rating': '4', 'number_of_reviews': 'New', 'price': '৳200,995'}, 'map_info_window': {'property_type': 'House', 'title': 'Shalimpo Safari Home', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳200,995'}, 'details_info': {'title': 'Shalimpo Safari Home', 'property_type': 'House', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳200,995'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/pakistan</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E104" t="b">
+        <v>1</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Adara canal suites', 'rating': '7.0', 'number_of_reviews': '(12 Reviews)', 'price': '৳3,321'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Adara canal suites', 'rating': '7.0', 'number_of_reviews': '(12 Reviews)', 'price': '৳3,321'}, 'details_info': {'title': 'Adara canal suites', 'property_type': 'Apartment', 'rating': '7.0', 'number_of_reviews': '(12 Reviews)', 'price': '৳3,321'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/pakistan</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E105" t="b">
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Centaurus Apartment', 'rating': '10.0', 'number_of_reviews': '(5 Reviews)', 'price': '৳19,233'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Adara canal suites', 'rating': '7.0', 'number_of_reviews': '(12 Reviews)', 'price': '৳3,321'}, 'details_info': {'title': 'Centaurus Apartment', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(5 Reviews)', 'price': '৳19,233'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/pakistan</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E106" t="b">
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Elysium-Mountain luxe Executive Apartments Opposite Centaurus mall Islamabad', 'rating': '10.0', 'number_of_reviews': '(13 Reviews)', 'price': '৳16,610'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Adara canal suites', 'rating': '7.0', 'number_of_reviews': '(12 Reviews)', 'price': '৳3,321'}, 'details_info': {'title': 'Elysium-Mountain luxe Executive Apartments Opposite Centaurus mall Islamabad', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(13 Reviews)', 'price': '৳16,610'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/pakistan</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E107" t="b">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Spacious Haven', 'rating': '10.0', 'number_of_reviews': '(18 Reviews)', 'price': '৳5,599'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Adara canal suites', 'rating': '7.0', 'number_of_reviews': '(12 Reviews)', 'price': '৳3,321'}, 'details_info': {'title': 'Spacious Haven', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(18 Reviews)', 'price': '৳5,599'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/pakistan</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E108" t="b">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Royal Palace Guest House', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳1,339'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Adara canal suites', 'rating': '7.0', 'number_of_reviews': '(12 Reviews)', 'price': '৳3,321'}, 'details_info': {'title': 'Royal Palace Guest House', 'property_type': 'House', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳1,339'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/pakistan</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E109" t="b">
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Rashid Guest House', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳4,382'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Adara canal suites', 'rating': '7.0', 'number_of_reviews': '(12 Reviews)', 'price': '৳3,321'}, 'details_info': {'title': 'Rashid Guest House', 'property_type': 'House', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳4,382'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/pakistan</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E110" t="b">
+        <v>1</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Republika Urban', 'rating': '8.2', 'number_of_reviews': '(264 Reviews)', 'price': '৳1,826'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Republika Urban', 'rating': '8.2', 'number_of_reviews': '(264 Reviews)', 'price': '৳1,826'}, 'details_info': {'title': 'Republika Urban', 'property_type': 'Apartment', 'rating': '8.2', 'number_of_reviews': '(264 Reviews)', 'price': '৳1,826'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/pakistan</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E111" t="b">
+        <v>1</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'White Rose Guest House Karachi', 'rating': '4.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳1,339'}, 'map_info_window': {'property_type': 'House', 'title': 'White Rose Guest House Karachi', 'rating': '4.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳1,339'}, 'details_info': {'title': 'White Rose Guest House Karachi', 'property_type': 'House', 'rating': '4.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳1,339'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/pakistan</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E112" t="b">
+        <v>1</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Opal Oasis Appartment Pool Gym &amp; Cinema', 'rating': '10.0', 'number_of_reviews': '(6 Reviews)', 'price': '৳4,721'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Opal Oasis Appartment Pool Gym &amp; Cinema', 'rating': '10.0', 'number_of_reviews': '(6 Reviews)', 'price': '৳4,721'}, 'details_info': {'title': 'Opal Oasis Appartment Pool Gym &amp; Cinema', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(6 Reviews)', 'price': '৳4,721'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/pakistan</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E113" t="b">
+        <v>1</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Landmark Guest House', 'rating': '1.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳4,017'}, 'map_info_window': {'property_type': 'House', 'title': 'Landmark Guest House', 'rating': '1.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳4,017'}, 'details_info': {'title': 'Landmark Guest House', 'property_type': 'House', 'rating': '1.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳4,017'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/austria</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E114" t="b">
+        <v>0</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Vacation apartment 1 - House Brunhilde', 'rating': '9.4', 'number_of_reviews': '(3 Reviews)', 'price': '৳14,185'}, 'map_info_window': {}, 'details_info': {'title': 'Vacation apartment 1 - House Brunhilde', 'property_type': 'Apartment', 'rating': '9.4', 'number_of_reviews': '(3 Reviews)', 'price': '৳14,185'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/nicaragua</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E115" t="b">
+        <v>0</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'The Old School', 'rating': '3.7', 'number_of_reviews': '(3 Reviews)', 'price': '৳3,165'}, 'map_info_window': {}, 'details_info': {'title': 'The Old School', 'property_type': 'House', 'rating': '3.7', 'number_of_reviews': '(3 Reviews)', 'price': '৳3,165'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/bhutan</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E116" t="b">
+        <v>1</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Resort', 'title': 'Le Meridien Paro Riverfront', 'rating': '7.2', 'number_of_reviews': '(12 Reviews)', 'price': '৳66,950'}, 'map_info_window': {'property_type': 'Resort', 'title': 'Le Meridien Paro Riverfront', 'rating': '7.2', 'number_of_reviews': '(12 Reviews)', 'price': '৳66,950'}, 'details_info': {'title': 'Le Meridien Paro Riverfront', 'property_type': 'Resort', 'rating': '7.2', 'number_of_reviews': '(12 Reviews)', 'price': '৳66,950'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/bhutan</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E117" t="b">
+        <v>1</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'lhaazaay suites', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳31,040'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'lhaazaay suites', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳31,040'}, 'details_info': {'title': 'lhaazaay suites', 'property_type': 'Hotel', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳31,040'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/bhutan</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E118" t="b">
+        <v>0</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Resort', 'title': 'Lemon Tree Resort, Thimphu, Bhutan', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳15,216'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'lhaazaay suites', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳31,040'}, 'details_info': {'title': 'Lemon Tree Resort, Thimphu, Bhutan', 'property_type': 'Resort', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳15,216'}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/test_reports.xlsx
+++ b/data/test_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F118"/>
+  <dimension ref="A1:F196"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3975,6 +3975,2346 @@
         </is>
       </c>
     </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/cayman-islands</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E119" t="b">
+        <v>0</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'South Bay Beach Club #28', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳157,514'}, 'map_info_window': {}, 'details_info': {'title': 'South Bay Beach Club #28', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳157,514'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/serbia</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E120" t="b">
+        <v>0</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Apartment Strava', 'rating': '10.0', 'number_of_reviews': '(27 Reviews)', 'price': '৳6,264'}, 'map_info_window': {}, 'details_info': {'title': 'Apartment Strava', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(27 Reviews)', 'price': '৳6,264'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/serbia</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E121" t="b">
+        <v>0</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Almi Lux Apartman Zlatibor', 'rating': '9.1', 'number_of_reviews': '(35 Reviews)', 'price': '৳5,431'}, 'map_info_window': {}, 'details_info': {'title': 'Almi Lux Apartman Zlatibor', 'property_type': 'Apartment', 'rating': '9.1', 'number_of_reviews': '(35 Reviews)', 'price': '৳5,431'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea-bissau</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E122" t="b">
+        <v>1</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Tchada- Duplex', 'rating': '8.6', 'number_of_reviews': '(5 Reviews)', 'price': '৳9,070'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Tchada- Duplex', 'rating': '8.6', 'number_of_reviews': '(5 Reviews)', 'price': '৳9,070'}, 'details_info': {'title': 'Tchada- Duplex', 'property_type': 'Apartment', 'rating': '8.6', 'number_of_reviews': '(5 Reviews)', 'price': '৳9,070'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea-bissau</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E123" t="b">
+        <v>0</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Mango eco Lodge Hotel', 'rating': '3', 'number_of_reviews': 'New', 'price': '৳3,798'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Tchada- Duplex', 'rating': '8.6', 'number_of_reviews': '(5 Reviews)', 'price': '৳9,070'}, 'details_info': {'title': 'Mango eco Lodge Hotel', 'property_type': 'Hotel', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳3,798'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea-bissau</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E124" t="b">
+        <v>1</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Ceiba Hotel Bissau', 'rating': '9.0', 'number_of_reviews': '(218 Reviews)', 'price': '৳14,597'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'Ceiba Hotel Bissau', 'rating': '9.0', 'number_of_reviews': '(218 Reviews)', 'price': '৳14,597'}, 'details_info': {'title': 'Ceiba Hotel Bissau', 'property_type': 'Hotel', 'rating': '9.0', 'number_of_reviews': '(218 Reviews)', 'price': '৳14,597'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea-bissau</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E125" t="b">
+        <v>1</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'MAG Palace Hotel', 'rating': '8.0', 'number_of_reviews': '(1 Review)', 'price': '৳7,486'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'MAG Palace Hotel', 'rating': '8.0', 'number_of_reviews': '(1 Review)', 'price': '৳7,486'}, 'details_info': {'title': 'MAG Palace Hotel', 'property_type': 'Hotel', 'rating': '8.0', 'number_of_reviews': '(1 Review)', 'price': '৳7,486'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea-bissau</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E126" t="b">
+        <v>0</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Casa Amarela Apartment with Wi-Fi and Kitchen', 'rating': '3', 'number_of_reviews': 'New', 'price': '৳6,938'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Casa Amarela Apartment with Wi-Fi and Kitchen', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳6,938'}, 'details_info': {'title': 'Casa Amarela Apartment with Wi-Fi and Kitchen', 'property_type': 'Apartment', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳6,938'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea-bissau</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E127" t="b">
+        <v>1</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Frutíferos Casa', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳9,860'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Frutíferos Casa', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳9,860'}, 'details_info': {'title': 'Frutíferos Casa', 'property_type': 'Apartment', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳9,860'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea-bissau</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E128" t="b">
+        <v>1</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Casa Excelsior Bissau', 'rating': '9.5', 'number_of_reviews': '(2 Reviews)', 'price': '৳4,940'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Casa Excelsior Bissau', 'rating': '9.5', 'number_of_reviews': '(2 Reviews)', 'price': '৳4,940'}, 'details_info': {'title': 'Casa Excelsior Bissau', 'property_type': 'Apartment', 'rating': '9.5', 'number_of_reviews': '(2 Reviews)', 'price': '৳4,940'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea-bissau</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E129" t="b">
+        <v>0</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Bed &amp; Breakfast', 'title': 'Saldomar B&amp;Biosphere', 'rating': '9.6', 'number_of_reviews': '(19 Reviews)', 'price': '৳2,267'}, 'map_info_window': {'property_type': 'Bed &amp; Breakfast', 'title': 'Saldomar B&amp;Biosphere', 'rating': '9.6', 'number_of_reviews': '(19 Reviews)', 'price': '৳2,267'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea-bissau</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E130" t="b">
+        <v>0</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Hotel Zurich', 'rating': '6.1', 'number_of_reviews': '(10 Reviews)', 'price': '৳6,452'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'Hotel Zurich', 'rating': '6.1', 'number_of_reviews': '(10 Reviews)', 'price': '৳6,452'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea-bissau</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E131" t="b">
+        <v>0</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Casa Zauad low cost family house', 'rating': '9.3', 'number_of_reviews': '(4 Reviews)', 'price': '৳4,366'}, 'map_info_window': {'property_type': 'House', 'title': 'Casa Zauad low cost family house', 'rating': '9.3', 'number_of_reviews': '(4 Reviews)', 'price': '৳4,366'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/namibia</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E132" t="b">
+        <v>1</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Schuetzenhaus Guesthouse', 'rating': '7.5', 'number_of_reviews': '(76 Reviews)', 'price': '৳9,860'}, 'map_info_window': {'property_type': 'House', 'title': 'Schuetzenhaus Guesthouse', 'rating': '7.5', 'number_of_reviews': '(76 Reviews)', 'price': '৳9,860'}, 'details_info': {'title': 'Schuetzenhaus Guesthouse', 'property_type': 'House', 'rating': '7.5', 'number_of_reviews': '(76 Reviews)', 'price': '৳9,860'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/sao-tome-and-principe</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E133" t="b">
+        <v>0</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Hotel Kenito', 'rating': '9.0', 'number_of_reviews': '(283 Reviews)', 'price': '৳8,421'}, 'map_info_window': {}, 'details_info': {'title': 'Hotel Kenito', 'property_type': 'Hotel', 'rating': '9.0', 'number_of_reviews': '(283 Reviews)', 'price': '৳8,421'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/sao-tome-and-principe</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E134" t="b">
+        <v>1</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Cabin', 'title': "GENTE D'AQUI Ngê D'ai êê", 'rating': '9.1', 'number_of_reviews': '(140 Reviews)', 'price': '৳3,632'}, 'map_info_window': {'property_type': 'Cabin', 'title': "GENTE D'AQUI Ngê D'ai êê", 'rating': '9.1', 'number_of_reviews': '(140 Reviews)', 'price': '৳3,632'}, 'details_info': {'title': "GENTE D'AQUI Ngê D'ai êê", 'property_type': 'Cabin', 'rating': '9.1', 'number_of_reviews': '(140 Reviews)', 'price': '৳3,632'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/sao-tome-and-principe</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E135" t="b">
+        <v>0</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Bed &amp; Breakfast', 'title': 'MANDINGA - GUESTHOUSE', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳11,807'}, 'map_info_window': {'property_type': 'Bed &amp; Breakfast', 'title': 'MANDINGA - GUESTHOUSE', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳11,807'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/sao-tome-and-principe</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E136" t="b">
+        <v>0</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Bed &amp; Breakfast', 'title': 'Sonho Non', 'rating': '10.0', 'number_of_reviews': '(13 Reviews)', 'price': '৳12,352'}, 'map_info_window': {'property_type': 'Bed &amp; Breakfast', 'title': 'Sonho Non', 'rating': '10.0', 'number_of_reviews': '(13 Reviews)', 'price': '৳12,352'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/sao-tome-and-principe</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E137" t="b">
+        <v>0</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Ski Chalet', 'title': 'Casa de Andréa', 'rating': '8.0', 'number_of_reviews': '(47 Reviews)', 'price': '৳7,547'}, 'map_info_window': {'property_type': 'Ski Chalet', 'title': 'Casa de Andréa', 'rating': '8.0', 'number_of_reviews': '(47 Reviews)', 'price': '৳7,547'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/sao-tome-and-principe</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E138" t="b">
+        <v>0</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Omali São Tomé', 'rating': '8.5', 'number_of_reviews': '(212 Reviews)', 'price': '৳27,997'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'Omali São Tomé', 'rating': '8.5', 'number_of_reviews': '(212 Reviews)', 'price': '৳27,997'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/sao-tome-and-principe</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E139" t="b">
+        <v>0</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'Résidence Gabrielle', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳31,814'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Résidence Gabrielle', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳31,814'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/sao-tome-and-principe</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E140" t="b">
+        <v>0</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': "Baig's Guest House", 'rating': '8.9', 'number_of_reviews': '(68 Reviews)', 'price': '৳5,614'}, 'map_info_window': {'property_type': 'House', 'title': "Baig's Guest House", 'rating': '8.9', 'number_of_reviews': '(68 Reviews)', 'price': '৳5,614'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/sao-tome-and-principe</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E141" t="b">
+        <v>0</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'casa Luis', 'rating': '9.0', 'number_of_reviews': '(273 Reviews)', 'price': '৳6,817'}, 'map_info_window': {'property_type': 'House', 'title': 'casa Luis', 'rating': '9.0', 'number_of_reviews': '(273 Reviews)', 'price': '৳6,817'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/sao-tome-and-principe</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E142" t="b">
+        <v>0</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Apartamento Vista Mar', 'rating': '6.2', 'number_of_reviews': '(6 Reviews)', 'price': '৳9,982'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Apartamento Vista Mar', 'rating': '6.2', 'number_of_reviews': '(6 Reviews)', 'price': '৳9,982'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/french-polynesia</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E143" t="b">
+        <v>0</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'MOOREA - PaoPao Cottage', 'rating': '10.0', 'number_of_reviews': '(7 Reviews)', 'price': '৳10,955'}, 'map_info_window': {}, 'details_info': {'title': 'MOOREA - PaoPao Cottage', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(7 Reviews)', 'price': '৳10,955'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/madagascar</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E144" t="b">
+        <v>1</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'eEnjoy your relaxing vacation right on the beach at hotel Belvedere "la Villa"', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳14,281'}, 'map_info_window': {'property_type': 'House', 'title': 'eEnjoy your relaxing vacation right on the beach at hotel Belvedere "la Villa"', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳14,281'}, 'details_info': {'title': 'eEnjoy your relaxing vacation right on the beach at hotel Belvedere "la Villa"', 'property_type': 'House', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳14,281'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/madagascar</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E145" t="b">
+        <v>0</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'villa Baobab', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳9,495'}, 'map_info_window': {'property_type': 'House', 'title': 'eEnjoy your relaxing vacation right on the beach at hotel Belvedere "la Villa"', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳14,281'}, 'details_info': {'title': 'villa Baobab', 'property_type': 'House', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳9,495'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/madagascar</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E146" t="b">
+        <v>0</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Bed &amp; Breakfast', 'title': "Chambre d'Hôte Villa Maritampona", 'rating': '9.6', 'number_of_reviews': '(34 Reviews)', 'price': '৳5,719'}, 'map_info_window': {'property_type': 'House', 'title': 'eEnjoy your relaxing vacation right on the beach at hotel Belvedere "la Villa"', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳14,281'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/madagascar</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E147" t="b">
+        <v>0</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'Eutopia Nature', 'rating': '10.0', 'number_of_reviews': '(4 Reviews)', 'price': '৳11,666'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Eutopia Nature', 'rating': '10.0', 'number_of_reviews': '(4 Reviews)', 'price': '৳11,666'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/madagascar</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E148" t="b">
+        <v>0</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Ecole Lodge Antananarivo', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳10,468'}, 'map_info_window': {'property_type': 'House', 'title': 'Ecole Lodge Antananarivo', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳10,468'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/madagascar</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E149" t="b">
+        <v>0</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'Location de vacances vue sur mer à petite plage', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳7,860'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Location de vacances vue sur mer à petite plage', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳7,860'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/madagascar</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E150" t="b">
+        <v>0</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Eden Lodge', 'rating': '9.2', 'number_of_reviews': '(27 Reviews)', 'price': '৳58,064'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'Eden Lodge', 'rating': '9.2', 'number_of_reviews': '(27 Reviews)', 'price': '৳58,064'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/madagascar</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E151" t="b">
+        <v>0</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Sambatra Beach Lodge', 'rating': '10.0', 'number_of_reviews': '(3 Reviews)', 'price': '৳4,492'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'Sambatra Beach Lodge', 'rating': '10.0', 'number_of_reviews': '(3 Reviews)', 'price': '৳4,492'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/madagascar</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E152" t="b">
+        <v>0</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Hotel Arc En Ciel', 'rating': '10.0', 'number_of_reviews': '(15 Reviews)', 'price': '৳11,827'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'Hotel Arc En Ciel', 'rating': '10.0', 'number_of_reviews': '(15 Reviews)', 'price': '৳11,827'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/madagascar</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E153" t="b">
+        <v>0</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Komba Forever', 'rating': '10.0', 'number_of_reviews': '(65 Reviews)', 'price': '৳10,347'}, 'map_info_window': {'property_type': 'House', 'title': 'Komba Forever', 'rating': '10.0', 'number_of_reviews': '(65 Reviews)', 'price': '৳10,347'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/bangladesh</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E154" t="b">
+        <v>0</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Exclusive star city apartment', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳7,304'}, 'map_info_window': {}, 'details_info': {'title': 'Exclusive star city apartment', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳7,304'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/bangladesh</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E155" t="b">
+        <v>1</v>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Grand Mess', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳1,461'}, 'map_info_window': {'property_type': 'House', 'title': 'Grand Mess', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳1,461'}, 'details_info': {'title': 'Grand Mess', 'property_type': 'House', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳1,461'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/bangladesh</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E156" t="b">
+        <v>1</v>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Two bedroom apartment , close to Dhaka airport', 'rating': '5.4', 'number_of_reviews': '(8 Reviews)', 'price': '৳1,826'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Two bedroom apartment , close to Dhaka airport', 'rating': '5.4', 'number_of_reviews': '(8 Reviews)', 'price': '৳1,826'}, 'details_info': {'title': 'Two bedroom apartment , close to Dhaka airport', 'property_type': 'Apartment', 'rating': '5.4', 'number_of_reviews': '(8 Reviews)', 'price': '৳1,826'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/bangladesh</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E157" t="b">
+        <v>0</v>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Sheikh Manama Tower', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳1,826'}, 'map_info_window': {'property_type': 'House', 'title': 'Sheikh Manama Tower', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳1,826'}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/new-caledonia</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E158" t="b">
+        <v>0</v>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Bed &amp; Breakfast', 'title': "Gîte Domaine de la Ferme d'Erambere lot 67 route de la Nondoue", 'rating': '8.8', 'number_of_reviews': '(25 Reviews)', 'price': '৳9,982'}, 'map_info_window': {}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/new-caledonia</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E159" t="b">
+        <v>0</v>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Le Big Bus', 'rating': '8.8', 'number_of_reviews': '(30 Reviews)', 'price': '৳6,085'}, 'map_info_window': {}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/somalia</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E160" t="b">
+        <v>0</v>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'cawaale blue hotel', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳12,173'}, 'map_info_window': {}, 'details_info': {'title': 'cawaale blue hotel', 'property_type': 'Hotel', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳12,173'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/somalia</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E161" t="b">
+        <v>1</v>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Jees Hotel', 'rating': '9.3', 'number_of_reviews': '(22 Reviews)', 'price': '৳9,616'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'Jees Hotel', 'rating': '9.3', 'number_of_reviews': '(22 Reviews)', 'price': '৳9,616'}, 'details_info': {'title': 'Jees Hotel', 'property_type': 'Hotel', 'rating': '9.3', 'number_of_reviews': '(22 Reviews)', 'price': '৳9,616'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/uganda</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E162" t="b">
+        <v>1</v>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Cabin', 'title': 'Apoka Safari Lodge', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳87,400'}, 'map_info_window': {'property_type': 'Cabin', 'title': 'Apoka Safari Lodge', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳87,400'}, 'details_info': {'title': 'Apoka Safari Lodge', 'property_type': 'Cabin', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳87,400'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/uganda</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E163" t="b">
+        <v>0</v>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Cozy Private Rooms in a furnished Penthouse with lake view', 'rating': '8.7', 'number_of_reviews': '(28 Reviews)', 'price': '৳5,478'}, 'map_info_window': {'property_type': 'Cabin', 'title': 'Apoka Safari Lodge', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳87,400'}, 'details_info': {'title': 'Cozy Private Rooms in a furnished Penthouse with lake view', 'property_type': 'House', 'rating': '8.7', 'number_of_reviews': '(28 Reviews)', 'price': '৳5,478'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/uganda</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E164" t="b">
+        <v>1</v>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Antique Apartment 1', 'rating': '7.8', 'number_of_reviews': '(8 Reviews)', 'price': '৳2,678'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Antique Apartment 1', 'rating': '7.8', 'number_of_reviews': '(8 Reviews)', 'price': '৳2,678'}, 'details_info': {'title': 'Antique Apartment 1', 'property_type': 'Apartment', 'rating': '7.8', 'number_of_reviews': '(8 Reviews)', 'price': '৳2,678'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/uganda</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E165" t="b">
+        <v>1</v>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Premium Family Cottage', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳99,694'}, 'map_info_window': {'property_type': 'House', 'title': 'Premium Family Cottage', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳99,694'}, 'details_info': {'title': 'Premium Family Cottage', 'property_type': 'House', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳99,694'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/uganda</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E166" t="b">
+        <v>1</v>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hostel', 'title': 'Masaka Backpackers, Tourists Cottage &amp; Campsite', 'rating': '10.0', 'number_of_reviews': '(4 Reviews)', 'price': '৳1,217'}, 'map_info_window': {'property_type': 'Hostel', 'title': 'Masaka Backpackers, Tourists Cottage &amp; Campsite', 'rating': '10.0', 'number_of_reviews': '(4 Reviews)', 'price': '৳1,217'}, 'details_info': {'title': 'Masaka Backpackers, Tourists Cottage &amp; Campsite', 'property_type': 'Hostel', 'rating': '10.0', 'number_of_reviews': '(4 Reviews)', 'price': '৳1,217'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/comoros</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E167" t="b">
+        <v>0</v>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Resort', 'title': 'Itsandra Beach Hotel &amp; Resort', 'rating': '8.2', 'number_of_reviews': '(76 Reviews)', 'price': '৳18,517'}, 'map_info_window': {}, 'details_info': {'title': 'Itsandra Beach Hotel &amp; Resort', 'property_type': 'Resort', 'rating': '8.2', 'number_of_reviews': '(76 Reviews)', 'price': '৳18,517'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/estonia</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E168" t="b">
+        <v>0</v>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Seaside Retreat with Hot tub,Sauna, Pool &amp; BBQ', 'rating': '10.0', 'number_of_reviews': '(6 Reviews)', 'price': '৳30,797'}, 'map_info_window': {}, 'details_info': {}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/moldova</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E169" t="b">
+        <v>0</v>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Happy House', 'rating': '9.8', 'number_of_reviews': '(6 Reviews)', 'price': '৳5,721'}, 'map_info_window': {}, 'details_info': {'title': 'Happy House', 'property_type': 'Apartment', 'rating': '9.8', 'number_of_reviews': '(6 Reviews)', 'price': '৳5,721'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/gibraltar</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E170" t="b">
+        <v>1</v>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'New! Gibraltar Luxury Beachfront Apartment, Sleeps 4', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳26,142'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'New! Gibraltar Luxury Beachfront Apartment, Sleeps 4', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳26,142'}, 'details_info': {'title': 'New! Gibraltar Luxury Beachfront Apartment, Sleeps 4', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳26,142'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/gibraltar</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E171" t="b">
+        <v>1</v>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'The Eliott Hotel', 'rating': '8.5', 'number_of_reviews': '(1168 Reviews)', 'price': '৳69,384'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'The Eliott Hotel', 'rating': '8.5', 'number_of_reviews': '(1168 Reviews)', 'price': '৳69,384'}, 'details_info': {'title': 'The Eliott Hotel', 'property_type': 'Hotel', 'rating': '8.5', 'number_of_reviews': '(1168 Reviews)', 'price': '৳69,384'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/gibraltar</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E172" t="b">
+        <v>0</v>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Luxury Catalan Bay Beach House - Sea + Rock Views', 'rating': '9.9', 'number_of_reviews': '(14 Reviews)', 'price': '৳24,954'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'The Eliott Hotel', 'rating': '8.5', 'number_of_reviews': '(1168 Reviews)', 'price': '৳69,384'}, 'details_info': {'title': 'Luxury Catalan Bay Beach House - Sea + Rock Views', 'property_type': 'Apartment', 'rating': '9.9', 'number_of_reviews': '(14 Reviews)', 'price': '৳24,954'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/gibraltar</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E173" t="b">
+        <v>0</v>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Luxury 1 Bed Apt - City Suites Ocean Spa Plaza', 'rating': '9.5', 'number_of_reviews': '(4 Reviews)', 'price': '৳27,267'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'The Eliott Hotel', 'rating': '8.5', 'number_of_reviews': '(1168 Reviews)', 'price': '৳69,384'}, 'details_info': {'title': 'Luxury 1 Bed Apt - City Suites Ocean Spa Plaza', 'property_type': 'Apartment', 'rating': '9.5', 'number_of_reviews': '(4 Reviews)', 'price': '৳27,267'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/gibraltar</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E174" t="b">
+        <v>1</v>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Rock Hotel', 'rating': '8.6', 'number_of_reviews': '(2854 Reviews)', 'price': '৳22,776'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'Rock Hotel', 'rating': '8.6', 'number_of_reviews': '(2854 Reviews)', 'price': '৳22,776'}, 'details_info': {'title': 'Rock Hotel', 'property_type': 'Hotel', 'rating': '8.6', 'number_of_reviews': '(2854 Reviews)', 'price': '৳22,776'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/gibraltar</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E175" t="b">
+        <v>1</v>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Modern Studio Apartment at The Hub', 'rating': '9.0', 'number_of_reviews': '(164 Reviews)', 'price': '৳18,868'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Modern Studio Apartment at The Hub', 'rating': '9.0', 'number_of_reviews': '(164 Reviews)', 'price': '৳18,868'}, 'details_info': {'title': 'Modern Studio Apartment at The Hub', 'property_type': 'Apartment', 'rating': '9.0', 'number_of_reviews': '(164 Reviews)', 'price': '৳18,868'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/gibraltar</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E176" t="b">
+        <v>1</v>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Marina Club - Luxury Apartment in Ocean Village', 'rating': '9.6', 'number_of_reviews': '(24 Reviews)', 'price': '৳32,501'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Marina Club - Luxury Apartment in Ocean Village', 'rating': '9.6', 'number_of_reviews': '(24 Reviews)', 'price': '৳32,501'}, 'details_info': {'title': 'Marina Club - Luxury Apartment in Ocean Village', 'property_type': 'Apartment', 'rating': '9.6', 'number_of_reviews': '(24 Reviews)', 'price': '৳32,501'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/gibraltar</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E177" t="b">
+        <v>1</v>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': 'Luxury Beachfront Home', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳24,304'}, 'map_info_window': {'property_type': 'House', 'title': 'Luxury Beachfront Home', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳24,304'}, 'details_info': {'title': 'Luxury Beachfront Home', 'property_type': 'House', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳24,304'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/gibraltar</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E178" t="b">
+        <v>1</v>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Gibraltar Central Suites', 'rating': '9.4', 'number_of_reviews': '(146 Reviews)', 'price': '৳18,746'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Gibraltar Central Suites', 'rating': '9.4', 'number_of_reviews': '(146 Reviews)', 'price': '৳18,746'}, 'details_info': {'title': 'Gibraltar Central Suites', 'property_type': 'Apartment', 'rating': '9.4', 'number_of_reviews': '(146 Reviews)', 'price': '৳18,746'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/mauritius</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E179" t="b">
+        <v>1</v>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Seacret Bay', 'rating': '6.6', 'number_of_reviews': '(30 Reviews)', 'price': '৳6,089'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Seacret Bay', 'rating': '6.6', 'number_of_reviews': '(30 Reviews)', 'price': '৳6,089'}, 'details_info': {'title': 'Seacret Bay', 'property_type': 'Apartment', 'rating': '6.6', 'number_of_reviews': '(30 Reviews)', 'price': '৳6,089'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/mauritius</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E180" t="b">
+        <v>1</v>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'The Compound - Villa 3', 'rating': '10.0', 'number_of_reviews': '(7 Reviews)', 'price': '৳47,410'}, 'map_info_window': {'property_type': 'Villa', 'title': 'The Compound - Villa 3', 'rating': '10.0', 'number_of_reviews': '(7 Reviews)', 'price': '৳47,410'}, 'details_info': {'title': 'The Compound - Villa 3', 'property_type': 'Villa', 'rating': '10.0', 'number_of_reviews': '(7 Reviews)', 'price': '৳47,410'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/mauritius</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E181" t="b">
+        <v>1</v>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'Villa Sartelo', 'rating': '10.0', 'number_of_reviews': '(9 Reviews)', 'price': '৳59,768'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Villa Sartelo', 'rating': '10.0', 'number_of_reviews': '(9 Reviews)', 'price': '৳59,768'}, 'details_info': {'title': 'Villa Sartelo', 'property_type': 'Villa', 'rating': '10.0', 'number_of_reviews': '(9 Reviews)', 'price': '৳59,768'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/mauritius</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E182" t="b">
+        <v>1</v>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': "Villa de l'Océan by muse villas", 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳740,829'}, 'map_info_window': {'property_type': 'Villa', 'title': "Villa de l'Océan by muse villas", 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳740,829'}, 'details_info': {'title': "Villa de l'Océan by muse villas", 'property_type': 'Villa', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳740,829'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/antigua-and-barbuda</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E183" t="b">
+        <v>1</v>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Suite Serenade', 'rating': '4.7', 'number_of_reviews': '(3 Reviews)', 'price': '৳21,180'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Suite Serenade', 'rating': '4.7', 'number_of_reviews': '(3 Reviews)', 'price': '৳21,180'}, 'details_info': {'title': 'Suite Serenade', 'property_type': 'Apartment', 'rating': '4.7', 'number_of_reviews': '(3 Reviews)', 'price': '৳21,180'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/antigua-and-barbuda</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E184" t="b">
+        <v>0</v>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Sunshine Villa', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳41,631'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Suite Serenade', 'rating': '4.7', 'number_of_reviews': '(3 Reviews)', 'price': '৳21,180'}, 'details_info': {'title': 'Sunshine Villa', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳41,631'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/antigua-and-barbuda</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E185" t="b">
+        <v>1</v>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'Stunning 3 bedroom villa with Pool &amp; Jacuzzi', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳104,441'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Stunning 3 bedroom villa with Pool &amp; Jacuzzi', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳104,441'}, 'details_info': {'title': 'Stunning 3 bedroom villa with Pool &amp; Jacuzzi', 'property_type': 'Villa', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳104,441'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/antigua-and-barbuda</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E186" t="b">
+        <v>1</v>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Resort', 'title': 'Sandals Grande Antigua - All Inclusive Resort and Spa - Couples Only', 'rating': '8.2', 'number_of_reviews': '(54 Reviews)', 'price': '৳127,204'}, 'map_info_window': {'property_type': 'Resort', 'title': 'Sandals Grande Antigua - All Inclusive Resort and Spa - Couples Only', 'rating': '8.2', 'number_of_reviews': '(54 Reviews)', 'price': '৳127,204'}, 'details_info': {'title': 'Sandals Grande Antigua - All Inclusive Resort and Spa - Couples Only', 'property_type': 'Resort', 'rating': '8.2', 'number_of_reviews': '(54 Reviews)', 'price': '৳127,204'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/antigua-and-barbuda</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E187" t="b">
+        <v>1</v>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'VIP The Beach House', 'rating': '9.0', 'number_of_reviews': '(1 Review)', 'price': '৳359,094'}, 'map_info_window': {'property_type': 'Villa', 'title': 'VIP The Beach House', 'rating': '9.0', 'number_of_reviews': '(1 Review)', 'price': '৳359,094'}, 'details_info': {'title': 'VIP The Beach House', 'property_type': 'Villa', 'rating': '9.0', 'number_of_reviews': '(1 Review)', 'price': '৳359,094'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/antigua-and-barbuda</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E188" t="b">
+        <v>1</v>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Little Rock Cottage', 'rating': '9.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳35,666'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Little Rock Cottage', 'rating': '9.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳35,666'}, 'details_info': {'title': 'Little Rock Cottage', 'property_type': 'Apartment', 'rating': '9.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳35,666'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/antigua-and-barbuda</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E189" t="b">
+        <v>1</v>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Villa', 'title': 'Fantastic location Beautiful Villa !', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳219,108'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Fantastic location Beautiful Villa !', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳219,108'}, 'details_info': {'title': 'Fantastic location Beautiful Villa !', 'property_type': 'Villa', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳219,108'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/antigua-and-barbuda</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E190" t="b">
+        <v>1</v>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'House', 'title': '246D South Finger', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳46,134'}, 'map_info_window': {'property_type': 'House', 'title': '246D South Finger', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳46,134'}, 'details_info': {'title': '246D South Finger', 'property_type': 'House', 'rating': '10.0', 'number_of_reviews': '(1 Review)', 'price': '৳46,134'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/antigua-and-barbuda</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E191" t="b">
+        <v>0</v>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Resort', 'title': 'The Cove Suites at Blue Waters', 'rating': '5', 'number_of_reviews': 'New', 'price': '৳129,395'}, 'map_info_window': {'property_type': 'Resort', 'title': 'The Cove Suites at Blue Waters', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳129,395'}, 'details_info': {'title': 'The Cove Suites at Blue Waters', 'property_type': 'Resort', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳129,395'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E192" t="b">
+        <v>1</v>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Studio meublé à Conakry', 'rating': '8.3', 'number_of_reviews': '(6 Reviews)', 'price': '৳4,626'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Studio meublé à Conakry', 'rating': '8.3', 'number_of_reviews': '(6 Reviews)', 'price': '৳4,626'}, 'details_info': {'title': 'Studio meublé à Conakry', 'property_type': 'Apartment', 'rating': '8.3', 'number_of_reviews': '(6 Reviews)', 'price': '৳4,626'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E193" t="b">
+        <v>1</v>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Grand Hotel Central Conakry', 'rating': '7.1', 'number_of_reviews': '(308 Reviews)', 'price': '৳14,607'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'Grand Hotel Central Conakry', 'rating': '7.1', 'number_of_reviews': '(308 Reviews)', 'price': '৳14,607'}, 'details_info': {'title': 'Grand Hotel Central Conakry', 'property_type': 'Hotel', 'rating': '7.1', 'number_of_reviews': '(308 Reviews)', 'price': '৳14,607'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E194" t="b">
+        <v>1</v>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Los Angeles to Conakry *KIPE*', 'rating': '8.2', 'number_of_reviews': '(5 Reviews)', 'price': '৳5,843'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Los Angeles to Conakry *KIPE*', 'rating': '8.2', 'number_of_reviews': '(5 Reviews)', 'price': '৳5,843'}, 'details_info': {'title': 'Los Angeles to Conakry *KIPE*', 'property_type': 'Apartment', 'rating': '8.2', 'number_of_reviews': '(5 Reviews)', 'price': '৳5,843'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E195" t="b">
+        <v>1</v>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Hotel', 'title': 'Radisson Blu Hotel, Conakry', 'rating': '9.3', 'number_of_reviews': '(4 Reviews)', 'price': '৳25,076'}, 'map_info_window': {'property_type': 'Hotel', 'title': 'Radisson Blu Hotel, Conakry', 'rating': '9.3', 'number_of_reviews': '(4 Reviews)', 'price': '৳25,076'}, 'details_info': {'title': 'Radisson Blu Hotel, Conakry', 'property_type': 'Hotel', 'rating': '9.3', 'number_of_reviews': '(4 Reviews)', 'price': '৳25,076'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/guinea</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E196" t="b">
+        <v>1</v>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Appartement F4 situé à Coleah', 'rating': '6.3', 'number_of_reviews': '(3 Reviews)', 'price': '৳9,493'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Appartement F4 situé à Coleah', 'rating': '6.3', 'number_of_reviews': '(3 Reviews)', 'price': '৳9,493'}, 'details_info': {'title': 'Appartement F4 situé à Coleah', 'property_type': 'Apartment', 'rating': '6.3', 'number_of_reviews': '(3 Reviews)', 'price': '৳9,493'}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/test_reports.xlsx
+++ b/data/test_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>https://www.varoom.com/all/moldova</t>
+          <t>https://www.varoom.com/all/madagascar</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -491,7 +491,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>{'tile_info': {'property_type': 'House', 'title': 'Imperium', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳127,002'}, 'map_info_window': {'property_type': 'House', 'title': 'Imperium', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳127,002'}, 'details_info': {'title': 'Imperium', 'property_type': 'House', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳127,002'}}</t>
+          <t>{'ID': 'BC-9367319', 'tile_info': {'property_type': 'House', 'title': 'maison vanilianadia', 'rating': '9.1', 'number_of_reviews': '(19 Reviews)', 'price': '৳6,452'}, 'map_info_window': {'property_type': 'House', 'title': 'maison vanilianadia', 'rating': '9.1', 'number_of_reviews': '(19 Reviews)', 'price': '৳6,452'}, 'details_info': {'title': 'maison vanilianadia', 'property_type': 'House', 'rating': '9.1', 'number_of_reviews': '(19 Reviews)', 'price': '৳6,452'}}</t>
         </is>
       </c>
     </row>
@@ -503,7 +503,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>https://www.varoom.com/all/moldova</t>
+          <t>https://www.varoom.com/all/madagascar</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Lux Apartment in the Center', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳7,816'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Lux Apartment in the Center', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳7,816'}, 'details_info': {'title': 'Lux Apartment in the Center', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳7,816'}}</t>
+          <t>{'ID': 'BC-6940225', 'tile_info': {'property_type': 'Villa', 'title': 'Villa Ilo Majunga', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳34,814'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Villa Ilo Majunga', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳34,814'}, 'details_info': {'title': 'Villa Ilo Majunga', 'property_type': 'Villa', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳34,814'}}</t>
         </is>
       </c>
     </row>
@@ -533,7 +533,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>https://www.varoom.com/all/moldova</t>
+          <t>https://www.varoom.com/all/madagascar</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +551,7 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Your Home in Chisinau: Private Parking and Peaceful Stay', 'rating': '10.0', 'number_of_reviews': '(49 Reviews)', 'price': '৳9,251'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Your Home in Chisinau: Private Parking and Peaceful Stay', 'rating': '10.0', 'number_of_reviews': '(49 Reviews)', 'price': '৳9,251'}, 'details_info': {'title': 'Your Home in Chisinau: Private Parking and Peaceful Stay', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(49 Reviews)', 'price': '৳9,251'}}</t>
+          <t>{'ID': 'BC-12635873', 'tile_info': {'property_type': 'Villa', 'title': 'Eutopia Nature', 'rating': '10.0', 'number_of_reviews': '(4 Reviews)', 'price': '৳11,666'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Eutopia Nature', 'rating': '10.0', 'number_of_reviews': '(4 Reviews)', 'price': '৳11,666'}, 'details_info': {'title': 'Eutopia Nature', 'property_type': 'Villa', 'rating': '10.0', 'number_of_reviews': '(4 Reviews)', 'price': '৳11,666'}}</t>
         </is>
       </c>
     </row>
@@ -563,7 +563,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://www.varoom.com/all/moldova</t>
+          <t>https://www.varoom.com/all/hungary</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,11 +577,11 @@
         </is>
       </c>
       <c r="E5" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Apartments in center of Chisinau Anestiade', 'rating': '10.0', 'number_of_reviews': '(5 Reviews)', 'price': '৳8,141'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Apartments in center of Chisinau Anestiade', 'rating': '10.0', 'number_of_reviews': '(5 Reviews)', 'price': '৳8,141'}, 'details_info': {'title': 'Apartments in center of Chisinau Anestiade', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(5 Reviews)', 'price': '৳8,141'}}</t>
+          <t>{'ID': 'BC-12751637', 'tile_info': {'property_type': 'Apartment', 'title': 'Örökzöld apartman', 'rating': '3', 'number_of_reviews': 'New', 'price': '৳5,770,758'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Örökzöld apartman', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳5,770,758'}, 'details_info': {'title': 'Örökzöld apartman', 'property_type': 'Apartment', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳5,770,758'}}</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://www.varoom.com/all/moldova</t>
+          <t>https://www.varoom.com/all/hungary</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -611,7 +611,7 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'ApartsOasis', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳73,036'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'ApartsOasis', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳73,036'}, 'details_info': {'title': 'ApartsOasis', 'property_type': 'Apartment', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳73,036'}}</t>
+          <t>{'ID': 'BC-3144217', 'tile_info': {'property_type': 'House', 'title': 'Kéktornácos Ház', 'rating': '9.5', 'number_of_reviews': '(2 Reviews)', 'price': '৳11,779'}, 'map_info_window': {'property_type': 'House', 'title': 'Kéktornácos Ház', 'rating': '9.5', 'number_of_reviews': '(2 Reviews)', 'price': '৳11,779'}, 'details_info': {'title': 'Kéktornácos Ház', 'property_type': 'House', 'rating': '9.5', 'number_of_reviews': '(2 Reviews)', 'price': '৳11,779'}}</t>
         </is>
       </c>
     </row>
@@ -623,7 +623,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://www.varoom.com/all/moldova</t>
+          <t>https://www.varoom.com/all/hungary</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -641,127 +641,7 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Charm City Residence', 'rating': '10.0', 'number_of_reviews': '(4 Reviews)', 'price': '৳8,910'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Charm City Residence', 'rating': '10.0', 'number_of_reviews': '(4 Reviews)', 'price': '৳8,910'}, 'details_info': {'title': 'Charm City Residence', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(4 Reviews)', 'price': '৳8,910'}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>www.varoom.com</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>https://www.varoom.com/all/moldova</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Test for data consistency</t>
-        </is>
-      </c>
-      <c r="E8" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>{'tile_info': {'property_type': 'Apartment', 'title': '2-Bedroom Family Grandeur Apartment', 'rating': '10.0', 'number_of_reviews': '(23 Reviews)', 'price': '৳10,834'}, 'map_info_window': {'property_type': 'Apartment', 'title': '2-Bedroom Family Grandeur Apartment', 'rating': '10.0', 'number_of_reviews': '(23 Reviews)', 'price': '৳10,834'}, 'details_info': {'title': '2-Bedroom Family Grandeur Apartment', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(23 Reviews)', 'price': '৳10,834'}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>www.varoom.com</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>https://www.varoom.com/all/moldova</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Test for data consistency</t>
-        </is>
-      </c>
-      <c r="E9" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Şahin constructıon', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳8,521'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Şahin constructıon', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳8,521'}, 'details_info': {'title': 'Şahin constructıon', 'property_type': 'Apartment', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳8,521'}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>www.varoom.com</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>https://www.varoom.com/all/moldova</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Test for data consistency</t>
-        </is>
-      </c>
-      <c r="E10" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Starrent Decebal 99F', 'rating': '10.0', 'number_of_reviews': '(19 Reviews)', 'price': '৳7,620'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Starrent Decebal 99F', 'rating': '10.0', 'number_of_reviews': '(19 Reviews)', 'price': '৳7,620'}, 'details_info': {'title': 'Starrent Decebal 99F', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(19 Reviews)', 'price': '৳7,620'}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>www.varoom.com</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>https://www.varoom.com/all/moldova</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Category</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Test for data consistency</t>
-        </is>
-      </c>
-      <c r="E11" t="b">
-        <v>1</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>{'tile_info': {'property_type': 'Apartment', 'title': 'Alba-Iulia Vip Residence', 'rating': '8.2', 'number_of_reviews': '(11 Reviews)', 'price': '৳6,817'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Alba-Iulia Vip Residence', 'rating': '8.2', 'number_of_reviews': '(11 Reviews)', 'price': '৳6,817'}, 'details_info': {'title': 'Alba-Iulia Vip Residence', 'property_type': 'Apartment', 'rating': '8.2', 'number_of_reviews': '(11 Reviews)', 'price': '৳6,817'}}</t>
+          <t>{'ID': 'BC-13276457', 'tile_info': {'property_type': 'House', 'title': 'Marble inn - Budapest', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳5,527,255'}, 'map_info_window': {'property_type': 'House', 'title': 'Marble inn - Budapest', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳5,527,255'}, 'details_info': {'title': 'Marble inn - Budapest', 'property_type': 'House', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳5,527,255'}}</t>
         </is>
       </c>
     </row>

--- a/data/test_reports.xlsx
+++ b/data/test_reports.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -645,6 +645,336 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/zambia</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E8" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>{'ID': 'BC-12434789', 'tile_info': {'property_type': 'Apartment', 'title': 'Modern and cozy apartment', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳9,130'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Modern and cozy apartment', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳9,130'}, 'details_info': {'title': 'Modern and cozy apartment', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(2 Reviews)', 'price': '৳9,130'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/montenegro</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E9" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>{'ID': 'BC-4632630', 'tile_info': {'property_type': 'Apartment', 'title': 'I &amp; A apartment', 'rating': '9.5', 'number_of_reviews': '(27 Reviews)', 'price': '৳3,338'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'I &amp; A apartment', 'rating': '9.5', 'number_of_reviews': '(27 Reviews)', 'price': '৳3,338'}, 'details_info': {'title': 'I &amp; A apartment', 'property_type': 'Apartment', 'rating': '9.5', 'number_of_reviews': '(27 Reviews)', 'price': '৳3,338'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/montenegro</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E10" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>{'ID': 'BC-3259607', 'tile_info': {'property_type': 'Apartment', 'title': 'Lovely studio in Kotor', 'rating': '8.6', 'number_of_reviews': '(61 Reviews)', 'price': '৳3,848'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Lovely studio in Kotor', 'rating': '8.6', 'number_of_reviews': '(61 Reviews)', 'price': '৳3,848'}, 'details_info': {'title': 'Lovely studio in Kotor', 'property_type': 'Apartment', 'rating': '8.6', 'number_of_reviews': '(61 Reviews)', 'price': '৳3,848'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/montenegro</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E11" t="b">
+        <v>1</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>{'ID': 'BC-5130632', 'tile_info': {'property_type': 'Apartment', 'title': 'First line of the sea 1', 'rating': '9.6', 'number_of_reviews': '(34 Reviews)', 'price': '৳14,373'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'First line of the sea 1', 'rating': '9.6', 'number_of_reviews': '(34 Reviews)', 'price': '৳14,373'}, 'details_info': {'title': 'First line of the sea 1', 'property_type': 'Apartment', 'rating': '9.6', 'number_of_reviews': '(34 Reviews)', 'price': '৳14,373'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/montenegro</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E12" t="b">
+        <v>1</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>{'ID': 'BC-1353432', 'tile_info': {'property_type': 'Apartment', 'title': 'APARTMENT L.A.', 'rating': '9.9', 'number_of_reviews': '(27 Reviews)', 'price': '৳6,481'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'APARTMENT L.A.', 'rating': '9.9', 'number_of_reviews': '(27 Reviews)', 'price': '৳6,481'}, 'details_info': {'title': 'APARTMENT L.A.', 'property_type': 'Apartment', 'rating': '9.9', 'number_of_reviews': '(27 Reviews)', 'price': '৳6,481'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/montenegro</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>{'ID': 'BC-10424353', 'tile_info': {'property_type': 'Apartment', 'title': 'Nejra Apartment', 'rating': '10.0', 'number_of_reviews': '(14 Reviews)', 'price': '৳12,781'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Nejra Apartment', 'rating': '10.0', 'number_of_reviews': '(14 Reviews)', 'price': '৳12,781'}, 'details_info': {'title': 'Nejra Apartment', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(14 Reviews)', 'price': '৳12,781'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/montenegro</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>{'ID': 'BC-2520817', 'tile_info': {'property_type': 'Apartment', 'title': 'Angel Bay Apartment', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳17,133'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Angel Bay Apartment', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳17,133'}, 'details_info': {'title': 'Angel Bay Apartment', 'property_type': 'Apartment', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳17,133'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/montenegro</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>{'ID': 'BC-8111575', 'tile_info': {'property_type': 'Villa', 'title': 'Villa Mandragora', 'rating': '4', 'number_of_reviews': 'New', 'price': '৳548,500'}, 'map_info_window': {'property_type': 'Villa', 'title': 'Villa Mandragora', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳548,500'}, 'details_info': {'title': 'Villa Mandragora', 'property_type': 'Villa', 'rating': 'New', 'number_of_reviews': 'New', 'price': '৳548,500'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/montenegro</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E16" t="b">
+        <v>1</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>{'ID': 'BC-13374010', 'tile_info': {'property_type': 'Apartment', 'title': 'Dilan apartments by the sea', 'rating': '10.0', 'number_of_reviews': '(6 Reviews)', 'price': '৳2,254,403'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Dilan apartments by the sea', 'rating': '10.0', 'number_of_reviews': '(6 Reviews)', 'price': '৳2,254,403'}, 'details_info': {'title': 'Dilan apartments by the sea', 'property_type': 'Apartment', 'rating': '10.0', 'number_of_reviews': '(6 Reviews)', 'price': '৳2,254,403'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/montenegro</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E17" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>{'ID': 'BC-4943034', 'tile_info': {'property_type': 'Apartment', 'title': 'Verde Apartment', 'rating': '9.7', 'number_of_reviews': '(14 Reviews)', 'price': '৳7,400'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Verde Apartment', 'rating': '9.7', 'number_of_reviews': '(14 Reviews)', 'price': '৳7,400'}, 'details_info': {'title': 'Verde Apartment', 'property_type': 'Apartment', 'rating': '9.7', 'number_of_reviews': '(14 Reviews)', 'price': '৳7,400'}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>www.varoom.com</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>https://www.varoom.com/all/montenegro</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Test for data consistency</t>
+        </is>
+      </c>
+      <c r="E18" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>{'ID': 'BC-9582127', 'tile_info': {'property_type': 'Apartment', 'title': 'Boreti Residence', 'rating': '8.6', 'number_of_reviews': '(129 Reviews)', 'price': '৳1,065,230'}, 'map_info_window': {'property_type': 'Apartment', 'title': 'Boreti Residence', 'rating': '8.6', 'number_of_reviews': '(129 Reviews)', 'price': '৳1,065,230'}, 'details_info': {'title': 'Boreti Residence', 'property_type': 'Apartment', 'rating': '8.6', 'number_of_reviews': '(129 Reviews)', 'price': '৳1,065,230'}}</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
